--- a/Deep learning based audio classification.xlsx
+++ b/Deep learning based audio classification.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Projects\pig_noises_clap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D4800A-802D-4F0A-82AF-319259D48FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F83946-EEF8-4026-911C-516AAEB0DCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="All papers" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="507">
   <si>
     <t>ID</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Authors</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
   </si>
   <si>
     <t>Kumar K, Kumar R, de Boissiere T, Gestin L, Teoh WZ, Sotelo J, et al.</t>
-  </si>
-  <si>
-    <t>Processed</t>
   </si>
   <si>
     <t>https://arxiv.org/abs/1910.06711</t>
@@ -442,9 +436,6 @@
     <t>Piczak, Karol J.</t>
   </si>
   <si>
-    <t>Not read</t>
-  </si>
-  <si>
     <t xml:space="preserve">CNN architectures for large-scale audio classification. </t>
   </si>
   <si>
@@ -461,9 +452,6 @@
   </si>
   <si>
     <t>https://doi.org/10.1109/IST55454.2022.9827729</t>
-  </si>
-  <si>
-    <t>They compare it to non-pretrained AST, but this method cannot be pretrained using ImageNet weights, as far as I can tell</t>
   </si>
   <si>
     <t>audio classification using transformer architecture</t>
@@ -557,9 +545,6 @@
     <t>https://doi.org/10.21437/Interspeech.2021-698</t>
   </si>
   <si>
-    <t>The first transformer model according to them</t>
-  </si>
-  <si>
     <t>ImageNet, AudioSet, ESC-50, Speech Commands V2</t>
   </si>
   <si>
@@ -1587,6 +1572,12 @@
   </si>
   <si>
     <t>Audio signal processing,Convolutional neural network,Environment sound classification,Feature extraction,Feature selection</t>
+  </si>
+  <si>
+    <t>They compare it to non-pretrained AST, but this method cannot be pretrained using ImageNet weights</t>
+  </si>
+  <si>
+    <t>The first transformer model</t>
   </si>
 </sst>
 </file>
@@ -2062,7 +2053,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2143,16 +2134,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="t" displayName="t" ref="A1:P45">
-  <autoFilter ref="A1:P45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P45">
-    <sortCondition descending="1" ref="D1:D45"/>
-  </sortState>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="t" displayName="t" ref="A1:O45">
+  <autoFilter ref="A1:O45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Authors"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Status"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Year"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Cited Papers"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="link"/>
@@ -2398,13 +2385,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2412,21 +2399,20 @@
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="107.28515625" customWidth="1"/>
     <col min="3" max="3" width="42.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="9" width="20.5703125" customWidth="1"/>
-    <col min="10" max="10" width="26.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="28" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" customWidth="1"/>
-    <col min="15" max="15" width="26.42578125" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" customWidth="1"/>
+    <col min="15" max="15" width="66.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2436,10 +2422,10 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -2466,1838 +2452,1702 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="63.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="6">
+        <v>2019</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6">
-        <v>2019</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2018</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="L3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="N3" s="12"/>
+      <c r="O3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2017</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6">
-        <v>2017</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="6"/>
+      <c r="O4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="76.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:15" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2022</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="G5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="12">
-        <v>2022</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="17" t="s">
+      <c r="J5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
+      <c r="K5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="N5" s="12"/>
+      <c r="O5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="63.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:15" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2023</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="6">
-        <v>2023</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8" t="s">
+      <c r="L6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="N6" s="6"/>
+      <c r="O6" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="63.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:15" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2022</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="G7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="12">
-        <v>2022</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="17" t="s">
+      <c r="I7" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="J7" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="K7" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="L7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="M7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="N7" s="12"/>
+      <c r="O7" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="63.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:15" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2019</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="G8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="6">
-        <v>2019</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="N8" s="6"/>
+      <c r="O8" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="G9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="12">
-        <v>2021</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="17" t="s">
+      <c r="I9" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="13" t="s">
+      <c r="J9" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="K9" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="L9" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="M9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="N9" s="12"/>
+      <c r="O9" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="N9" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="76.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:15" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2009</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2009</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="N10" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="7" t="s">
+      <c r="O10" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="O10" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="63.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:15" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2017</v>
+      </c>
+      <c r="E11" s="12">
+        <v>11</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="12">
-        <v>2017</v>
-      </c>
-      <c r="F11" s="12">
-        <v>11</v>
-      </c>
-      <c r="G11" s="14" t="s">
+      <c r="H11" s="13"/>
+      <c r="I11" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="J11" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13" t="s">
+      <c r="K11" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="L11" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="M11" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="N11" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="O11" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="O11" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="P11" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2015</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="6">
-        <v>2015</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="21" t="s">
+      <c r="H12" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>109</v>
-      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="10"/>
-    </row>
-    <row r="13" spans="1:16" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="M12" s="9"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:15" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2024</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="G13" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="12">
-        <v>2024</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="22" t="s">
+      <c r="H13" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="I13" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="J13" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="K13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="M13" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="L13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="13" t="s">
+      <c r="N13" s="12"/>
+      <c r="O13" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="N13" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="89.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:15" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2024</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="G14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="6">
-        <v>2024</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="21" t="s">
+      <c r="I14" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7"/>
+      <c r="K14" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:15" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>16</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2022</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="J15" s="13"/>
+      <c r="K15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="12">
-        <v>2022</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="14" t="s">
+      <c r="M15" s="15"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="N15" s="15"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>23</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2020</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="M16" s="9"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="6">
-        <v>2020</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="140.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:15" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>24</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M17" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="N17" s="12"/>
+      <c r="O17" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="12">
-        <v>2021</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="N17" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="O17" s="12"/>
-      <c r="P17" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>25</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2020</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="6">
-        <v>2020</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:15" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>26</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="12">
-        <v>2021</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="23" t="s">
+      <c r="N19" s="12"/>
+      <c r="O19" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:15" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>27</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2017</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="M20" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="6">
-        <v>2017</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="21" t="s">
+      <c r="N20" s="6"/>
+      <c r="O20" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:15" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>28</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="12">
+        <v>2020</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="K21" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="12">
-        <v>2020</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="14" t="s">
+      <c r="L21" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="M21" s="15"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="N21" s="15"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>29</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2024</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="6">
-        <v>2024</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="N22" s="9"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:15" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>30</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23" s="12">
+        <v>2024</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="K23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="12">
-        <v>2024</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="14" t="s">
+      <c r="M23" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="13" t="s">
+      <c r="N23" s="12"/>
+      <c r="O23" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="J23" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="N23" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="O23" s="12"/>
-      <c r="P23" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:15" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>31</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="6">
+        <v>2024</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="M24" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="6">
-        <v>2024</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="21" t="s">
+      <c r="N24" s="6"/>
+      <c r="O24" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="76.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:15" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>32</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" s="12">
+        <v>2022</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="L25" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="M25" s="24"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="12">
-        <v>2022</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="N25" s="24"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:15" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>33</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="6">
+        <v>2022</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="K26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M26" s="9"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="6">
-        <v>2022</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N26" s="9"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="63.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:15" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>34</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" s="12">
+        <v>2019</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M27" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="N27" s="12"/>
+      <c r="O27" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="12">
-        <v>2019</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N27" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="O27" s="12"/>
-      <c r="P27" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="127.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:15" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>35</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2018</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="9"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="6">
-        <v>2018</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" s="9"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="76.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>36</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D29" s="12">
+        <v>2019</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="K29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="12">
-        <v>2019</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="14" t="s">
+      <c r="M29" s="15"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="N29" s="15"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="16" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:15" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>37</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30" s="6">
+        <v>2019</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="M30" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="6">
-        <v>2019</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="21" t="s">
+      <c r="N30" s="6"/>
+      <c r="O30" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="O30" s="6"/>
-      <c r="P30" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="114.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>38</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>18</v>
+        <v>263</v>
+      </c>
+      <c r="D31" s="12">
+        <v>2021</v>
       </c>
       <c r="E31" s="12">
-        <v>2021</v>
-      </c>
-      <c r="F31" s="12">
         <v>39</v>
       </c>
-      <c r="G31" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13" t="s">
-        <v>262</v>
-      </c>
+      <c r="F31" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="J31" s="13"/>
       <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="N31" s="15"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="16"/>
-    </row>
-    <row r="32" spans="1:16" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="L31" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="M31" s="15"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="16"/>
+    </row>
+    <row r="32" spans="1:15" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>39</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D32" s="6">
+        <v>2021</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="M32" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="6">
-        <v>2021</v>
-      </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="21" t="s">
+      <c r="N32" s="6"/>
+      <c r="O32" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="H32" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="N32" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="O32" s="6"/>
-      <c r="P32" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="114.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>43</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D33" s="12">
+        <v>2024</v>
+      </c>
+      <c r="E33" s="12">
+        <v>44</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M33" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="N33" s="49"/>
+      <c r="O33" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="12">
-        <v>2024</v>
-      </c>
-      <c r="F33" s="12">
-        <v>44</v>
-      </c>
-      <c r="G33" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="M33" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="N33" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="O33" s="49"/>
-      <c r="P33" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="89.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>14</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" s="6">
+        <v>126</v>
+      </c>
+      <c r="D34" s="6">
         <v>2014</v>
       </c>
+      <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="10"/>
-    </row>
-    <row r="35" spans="1:16" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="M34" s="9"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>15</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="12">
+        <v>2017</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="E35" s="12">
-        <v>2017</v>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="46" t="s">
-        <v>132</v>
-      </c>
+      <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="16"/>
-    </row>
-    <row r="36" spans="1:16" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="M35" s="15"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="16"/>
+    </row>
+    <row r="36" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>17</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E36" s="6">
+        <v>137</v>
+      </c>
+      <c r="D36" s="6">
         <v>2023</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="21" t="s">
-        <v>142</v>
-      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="10"/>
-    </row>
-    <row r="37" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M36" s="9"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="10"/>
+    </row>
+    <row r="37" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>18</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E37" s="12">
+        <v>140</v>
+      </c>
+      <c r="D37" s="12">
         <v>2024</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="14" t="s">
-        <v>145</v>
-      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="16"/>
-    </row>
-    <row r="38" spans="1:16" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="M37" s="15"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="16"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>19</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" s="6">
+        <v>143</v>
+      </c>
+      <c r="D38" s="6">
         <v>2021</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="8" t="s">
-        <v>148</v>
-      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="10"/>
-    </row>
-    <row r="39" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M38" s="9"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="10"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>20</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" s="12">
+        <v>146</v>
+      </c>
+      <c r="D39" s="12">
         <v>2022</v>
       </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="14" t="s">
-        <v>151</v>
-      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="16"/>
-    </row>
-    <row r="40" spans="1:16" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="M39" s="15"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="16"/>
+    </row>
+    <row r="40" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>21</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" s="6">
+        <v>149</v>
+      </c>
+      <c r="D40" s="6">
         <v>2021</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="21" t="s">
-        <v>154</v>
-      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="10"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M40" s="9"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="10"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>22</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E41" s="12">
+        <v>152</v>
+      </c>
+      <c r="D41" s="12">
         <v>2020</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="14" t="s">
-        <v>157</v>
-      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="16"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M41" s="15"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="16"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>40</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" s="6">
+        <v>275</v>
+      </c>
+      <c r="D42" s="6">
         <v>2021</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="47" t="s">
-        <v>281</v>
-      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="10"/>
-    </row>
-    <row r="43" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="M42" s="9"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="10"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>41</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E43" s="12">
+        <v>278</v>
+      </c>
+      <c r="D43" s="12">
         <v>2024</v>
       </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="46" t="s">
-        <v>284</v>
-      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="16"/>
-    </row>
-    <row r="44" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+      <c r="M43" s="15"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="16"/>
+    </row>
+    <row r="44" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E44" s="6">
+        <v>281</v>
+      </c>
+      <c r="D44" s="6">
         <v>2024</v>
       </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="47" t="s">
-        <v>287</v>
-      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="10"/>
-    </row>
-    <row r="45" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M44" s="9"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="10"/>
+    </row>
+    <row r="45" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="26">
         <v>44</v>
       </c>
       <c r="B45" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="D45" s="27">
+        <v>2023</v>
+      </c>
+      <c r="E45" s="27"/>
+      <c r="F45" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="I45" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="C45" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45" s="27">
-        <v>2023</v>
-      </c>
-      <c r="F45" s="27"/>
-      <c r="G45" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="H45" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="I45" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="J45" s="28" t="s">
-        <v>300</v>
-      </c>
+      <c r="J45" s="28"/>
       <c r="K45" s="28"/>
       <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="31"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="31"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D45" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"Processed,Not read,Half-read,Read,Needs more info,Ignored"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="M2:M45" xr:uid="{00000000-0002-0000-0000-000001000000}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" sqref="L2:L45" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"CNN,Multimodal,LSTM,RNN,Transformer,Multistream,Other,Traditional ML,Self-Supervised,GNN,Few-Shot"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:E45" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>AND(ISNUMBER(E2),(NOT(OR(NOT(ISERROR(DATEVALUE(E2))), AND(ISNUMBER(E2), LEFT(CELL("format", E2))="D")))))</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="D2:D45" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>AND(ISNUMBER(D2),(NOT(OR(NOT(ISERROR(DATEVALUE(D2))), AND(ISNUMBER(D2), LEFT(CELL("format", D2))="D")))))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="N2:N45 P2:P45" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation type="list" allowBlank="1" sqref="H2:H45" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation allowBlank="1" showDropDown="1" sqref="M2:M45 O2:O45" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation type="list" allowBlank="1" sqref="G2:G45" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Classification,ASR,Dataset,SED,Retrieval,Captioning,Generation"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="L2:L45" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" sqref="K2:K45" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"segmentation,Spectrogram,PCA whitening,Chromagram,MFCC,augmentation,STFT,Other,pretraining,raw"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G35" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G36" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G37" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G38" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G39" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G40" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G41" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G16" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G17" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G18" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G20" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G21" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G22" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="G23" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G24" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="G25" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G26" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G27" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G28" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G29" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G30" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G31" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G32" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="G42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G33" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="G45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F35" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F36" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F37" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F38" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F39" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F40" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F41" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F16" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F17" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F18" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F20" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F21" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F22" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F23" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F24" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F25" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F26" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F27" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F28" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F29" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F30" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F31" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F32" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="F43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="F33" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4319,11 +4169,11 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B2" s="32">
-        <f>COUNTA(Sheet1!D:D)-1</f>
-        <v>44</v>
+        <f>COUNTA(Sheet1!#REF!)-1</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4347,25 +4197,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -4401,117 +4251,117 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="S1" s="35" t="s">
         <v>319</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E2" s="6">
         <v>2024</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J2" s="6">
         <v>2024</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O2" s="6">
         <v>2309.0576700000001</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="S2" s="36">
         <v>2309.0576700000001</v>
@@ -4519,117 +4369,117 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E3" s="12">
         <v>2014</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J3" s="12">
         <v>2014</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S3" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E4" s="6">
         <v>2017</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J4" s="6">
         <v>2017</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O4" s="6">
         <v>1609.0943</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="S4" s="36">
         <v>1609.0943</v>
@@ -4637,75 +4487,75 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E5" s="12">
         <v>2022</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H5" s="38">
         <v>45809</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="J5" s="12">
         <v>2022</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S5" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E6" s="6">
         <v>2024</v>
@@ -4714,57 +4564,57 @@
         <v>12</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J6" s="6">
         <v>2024</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S6" s="36" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E7" s="12">
         <v>2023</v>
@@ -4776,54 +4626,54 @@
         <v>44896</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="J7" s="12">
         <v>2023</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S7" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E8" s="6">
         <v>2024</v>
@@ -4835,155 +4685,155 @@
         <v>45108</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J8" s="6">
         <v>2024</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S8" s="36" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E9" s="12">
         <v>2017</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J9" s="12">
         <v>2017</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S9" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E10" s="6">
         <v>2021</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H10" s="41">
         <v>45870</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="J10" s="6">
         <v>2021</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O10" s="6">
         <v>2201.0248999999999</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="S10" s="36">
         <v>2201.0248999999999</v>
@@ -4991,16 +4841,16 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E11" s="12">
         <v>2022</v>
@@ -5009,57 +4859,57 @@
         <v>16</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H11" s="12">
         <v>200115</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="J11" s="12">
         <v>2022</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S11" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E12" s="6">
         <v>2021</v>
@@ -5071,54 +4921,54 @@
         <v>6</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J12" s="6">
         <v>2021</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S12" s="36" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E13" s="12">
         <v>2020</v>
@@ -5127,63 +4977,63 @@
         <v>8</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J13" s="12">
         <v>2020</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S13" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E14" s="6">
         <v>2020</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G14" s="6">
         <v>2018</v>
@@ -5192,51 +5042,51 @@
         <v>45811</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J14" s="6">
         <v>2020</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S14" s="36" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E15" s="12">
         <v>2023</v>
@@ -5248,54 +5098,54 @@
         <v>5</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J15" s="12">
         <v>2023</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="R15" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S15" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E16" s="6">
         <v>2022</v>
@@ -5307,54 +5157,54 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J16" s="6">
         <v>2022</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="N16" s="6">
         <v>35214424</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S16" s="36" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E17" s="12">
         <v>2019</v>
@@ -5366,96 +5216,96 @@
         <v>7</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J17" s="12">
         <v>2019</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="N17" s="12">
         <v>30978974</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="R17" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S17" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E18" s="6">
         <v>2015</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H18" s="41">
         <v>45779</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J18" s="6">
         <v>2015</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O18" s="6">
         <v>1510.08484</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="S18" s="36">
         <v>1510.08484</v>
@@ -5463,16 +5313,16 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E19" s="12">
         <v>2021</v>
@@ -5484,113 +5334,113 @@
         <v>18</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J19" s="12">
         <v>2021</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R19" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S19" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E20" s="6">
         <v>2017</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J20" s="6">
         <v>2017</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S20" s="36" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E21" s="12">
         <v>2019</v>
@@ -5599,40 +5449,40 @@
         <v>32</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J21" s="12">
         <v>2019</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O21" s="12">
         <v>1910.06711</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="R21" s="12" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="S21" s="37">
         <v>1910.06711</v>
@@ -5640,117 +5490,117 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E22" s="6">
         <v>2009</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J22" s="6">
         <v>2009</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S22" s="36" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E23" s="12">
         <v>2018</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J23" s="12">
         <v>2018</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O23" s="12">
         <v>1709.0192199999999</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="R23" s="12" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="S23" s="37">
         <v>1709.0192199999999</v>
@@ -5758,16 +5608,16 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E24" s="6">
         <v>2022</v>
@@ -5779,96 +5629,96 @@
         <v>12</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J24" s="6">
         <v>2022</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S24" s="36" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E25" s="12">
         <v>2017</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J25" s="12">
         <v>2017</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O25" s="12">
         <v>1609.04243</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="R25" s="12" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="S25" s="37">
         <v>1609.04243</v>
@@ -5876,16 +5726,16 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E26" s="43">
         <v>2021</v>
@@ -5894,43 +5744,43 @@
         <v>175</v>
       </c>
       <c r="G26" s="43" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H26" s="43">
         <v>107819</v>
       </c>
       <c r="I26" s="43" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="J26" s="44">
         <v>44287</v>
       </c>
       <c r="K26" s="43" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="L26" s="43" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="M26" s="43" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="N26" s="43" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O26" s="43" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P26" s="43" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="Q26" s="43" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="R26" s="43" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S26" s="45" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
